--- a/documentos/POAINICIAL_MATRICES/MATRIZ_ACTIVIDAD_002.xlsx
+++ b/documentos/POAINICIAL_MATRICES/MATRIZ_ACTIVIDAD_002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MegaCloud\POA\formatos matrices 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\poa2\documentos\POAINICIAL_MATRICES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46596B13-22FF-4E5A-AD85-28685173B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4980A-89CF-4356-96B2-E0E8BC392180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
-  <si>
-    <t>Actividad</t>
-  </si>
-  <si>
-    <t>Ítem</t>
-  </si>
-  <si>
-    <t>Nombre Ítem</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nombre infraestructura</t>
   </si>
@@ -116,53 +96,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Edificios, Locales, Residencias y Cableado Estructurado (Instalación, Mantenimiento y Reparación)</t>
-  </si>
-  <si>
-    <t>Mantenimiento de los Gimnasios de: Karate Do, Boxeo y Tenis de Mesa</t>
-  </si>
-  <si>
-    <t>Napo</t>
-  </si>
-  <si>
-    <t>SUCRE OLMEDO</t>
-  </si>
-  <si>
-    <t>propia</t>
-  </si>
-  <si>
-    <t>recursosPublicos</t>
-  </si>
-  <si>
-    <t>gastosMantenimiento</t>
-  </si>
-  <si>
-    <t>sistemaElectrico</t>
-  </si>
-  <si>
-    <t>correctivo</t>
-  </si>
-  <si>
-    <t>Cambio de interruptores y toma corriente del Gimnasio de Karate Do, BOXEO TENIS DE MESA, CAMBIO DE CANALETAS</t>
-  </si>
-  <si>
-    <t>Insumos, Materiales y Suministros para la Construcción, Electricidad, Plomería, Carpintería, Señalización Vial, Navegación y Contra Incendios y Placas</t>
-  </si>
-  <si>
-    <t>Mantenimiento del Estadio “Leonardo Palacios”</t>
-  </si>
-  <si>
-    <t>interiores</t>
-  </si>
-  <si>
-    <t>Cambio de baldosas, pintada, cambio de visera, arreglo sistema electrico</t>
+    <t>Codigo Ítem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -174,20 +115,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -199,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,90 +166,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -635,275 +488,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="13" width="6.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="16" width="6.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="20" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="76.5">
-      <c r="A2" s="19">
-        <v>2</v>
-      </c>
-      <c r="B2" s="17">
-        <v>530402</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="13">
-        <v>44915</v>
-      </c>
-      <c r="N2" s="14">
-        <v>856</v>
-      </c>
-      <c r="O2" s="14">
-        <v>400</v>
-      </c>
-      <c r="P2" s="14">
-        <v>400</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>856</v>
-      </c>
-      <c r="R2" s="15">
-        <v>0</v>
-      </c>
-      <c r="S2" s="15">
-        <v>0</v>
-      </c>
-      <c r="T2" s="15">
-        <v>0</v>
-      </c>
-      <c r="U2" s="15">
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
-        <v>0</v>
-      </c>
-      <c r="W2" s="15">
-        <v>0</v>
-      </c>
-      <c r="X2" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="15">
-        <v>11856.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18">
-        <v>530811</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="5">
-        <v>44916</v>
-      </c>
-      <c r="N3" s="3">
-        <v>856</v>
-      </c>
-      <c r="O3" s="3">
-        <v>400</v>
-      </c>
-      <c r="P3" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>856</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>3642.4</v>
       </c>
     </row>
   </sheetData>
@@ -913,26 +598,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7244b0e2-097b-4d6e-8c01-3ea3ba716b46">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b02fbc50-a504-4973-97f7-5ce5556b2dd1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010081359B0670BA2442992841ACBC281152" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a35bb3e33eba45eefe7b9965cb5f761d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7244b0e2-097b-4d6e-8c01-3ea3ba716b46" xmlns:ns3="b02fbc50-a504-4973-97f7-5ce5556b2dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95e716357f12f35c533ea6b2ee741b63" ns2:_="" ns3:_="">
     <xsd:import namespace="7244b0e2-097b-4d6e-8c01-3ea3ba716b46"/>
@@ -1137,14 +802,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7244b0e2-097b-4d6e-8c01-3ea3ba716b46">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b02fbc50-a504-4973-97f7-5ce5556b2dd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADBF60B-DE95-4F55-8D5B-E81C227CEC09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE90E6F-7512-4932-A6A0-EE29BDCECEBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7244b0e2-097b-4d6e-8c01-3ea3ba716b46"/>
+    <ds:schemaRef ds:uri="b02fbc50-a504-4973-97f7-5ce5556b2dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EB7BF9-603C-42A4-983B-0B484EEC342B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EB7BF9-603C-42A4-983B-0B484EEC342B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE90E6F-7512-4932-A6A0-EE29BDCECEBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADBF60B-DE95-4F55-8D5B-E81C227CEC09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7244b0e2-097b-4d6e-8c01-3ea3ba716b46"/>
+    <ds:schemaRef ds:uri="b02fbc50-a504-4973-97f7-5ce5556b2dd1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>